--- a/test_cases/PE-10/PE-10.xlsx
+++ b/test_cases/PE-10/PE-10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test_cases\PE-10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\UADE\Año 2\Segundo Cutrimestre\Testing de Aplicaciones\TPO\test_cases\PE-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D06452-0CFF-4332-875A-B6943CA64FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82E8D7B-A59B-4E08-93EC-631FE76DE8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="9660" yWindow="2205" windowWidth="18510" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>Resultado esperado</t>
   </si>
   <si>
-    <t>Alta</t>
-  </si>
-  <si>
     <t>PE-10</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>Principal</t>
+  </si>
+  <si>
+    <t>Media</t>
   </si>
 </sst>
 </file>
@@ -557,30 +557,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="3.6328125" customWidth="1"/>
-    <col min="5" max="5" width="27.26953125" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
@@ -588,7 +588,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -597,44 +597,44 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
@@ -645,35 +645,35 @@
       <c r="E10" s="18"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:6" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="14" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>6</v>
@@ -684,43 +684,43 @@
       <c r="E14" s="18"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>1</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>2</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" ht="29" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="29" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="29" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="29" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" ht="29" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" ht="29" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="28.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="C4:C6"/>
